--- a/wb.xlsx
+++ b/wb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Nr. Stanowiska</t>
   </si>
@@ -34,7 +34,43 @@
     <t xml:space="preserve">z</t>
   </si>
   <si>
+    <t xml:space="preserve">Numerek</t>
+  </si>
+  <si>
     <t xml:space="preserve">W1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.135</t>
   </si>
   <si>
     <t xml:space="preserve">V</t>
@@ -115,9 +151,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -137,10 +177,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -165,8 +205,17 @@
       <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -182,14 +231,23 @@
       <c r="D2" s="0" t="n">
         <v>-800</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>6951</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>3222</v>
+      </c>
       <c r="I2" s="0" t="n">
-        <v>4100</v>
+        <v>6955</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>3223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -205,11 +263,23 @@
       <c r="D3" s="0" t="n">
         <v>-600</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>7023</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3896</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>7029</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>3905</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -225,11 +295,23 @@
       <c r="D4" s="0" t="n">
         <v>-600</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>7054</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>4011</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>7055</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>4004</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,11 +327,23 @@
       <c r="D5" s="0" t="n">
         <v>-1000</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>6991</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>3636</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>6982</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>3627</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,11 +359,23 @@
       <c r="D6" s="0" t="n">
         <v>-400</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>6893</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>3780</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>6904</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>3780</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -285,11 +391,23 @@
       <c r="D7" s="0" t="n">
         <v>-200</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>6863</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>3396</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>6964</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>3391</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,11 +423,23 @@
       <c r="D8" s="0" t="n">
         <v>-200</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>7052</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>3815</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>7041</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>3809</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,11 +455,33 @@
       <c r="D9" s="0" t="n">
         <v>-400</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>7135</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>4061</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>7135</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4100</v>
       </c>
     </row>
   </sheetData>

--- a/wb.xlsx
+++ b/wb.xlsx
@@ -180,7 +180,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wb.xlsx
+++ b/wb.xlsx
@@ -180,7 +180,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -234,9 +234,6 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="G2" s="0" t="n">
         <v>6951</v>
       </c>
@@ -266,9 +263,6 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="G3" s="0" t="n">
         <v>7023</v>
       </c>
@@ -298,9 +292,6 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="G4" s="0" t="n">
         <v>7054</v>
       </c>
@@ -330,9 +321,6 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="G5" s="0" t="n">
         <v>6991</v>
       </c>
@@ -362,9 +350,6 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="G6" s="0" t="n">
         <v>6893</v>
       </c>
@@ -394,9 +379,6 @@
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="G7" s="0" t="n">
         <v>6863</v>
       </c>
@@ -426,9 +408,6 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="G8" s="0" t="n">
         <v>7052</v>
       </c>
@@ -457,9 +436,6 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>8</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>7135</v>

--- a/wb.xlsx
+++ b/wb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t xml:space="preserve">Nr. Stanowiska</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">z</t>
   </si>
   <si>
-    <t xml:space="preserve">Numerek</t>
+    <t xml:space="preserve">Numer Wstrząsu</t>
   </si>
   <si>
     <t xml:space="preserve">W1</t>
@@ -52,25 +52,91 @@
     <t xml:space="preserve">6.951</t>
   </si>
   <si>
+    <t xml:space="preserve">3.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.223</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.023</t>
   </si>
   <si>
+    <t xml:space="preserve">3.896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.905</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.054</t>
   </si>
   <si>
+    <t xml:space="preserve">4.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.004</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.991</t>
   </si>
   <si>
+    <t xml:space="preserve">3.636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.627</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.893</t>
   </si>
   <si>
+    <t xml:space="preserve">3.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.904</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.863</t>
   </si>
   <si>
+    <t xml:space="preserve">3.396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.391</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.052</t>
   </si>
   <si>
+    <t xml:space="preserve">3.815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.809</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.071</t>
   </si>
   <si>
     <t xml:space="preserve">V</t>
@@ -180,13 +246,16 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -231,20 +300,19 @@
       <c r="D2" s="0" t="n">
         <v>-800</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>6951</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>3222</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>6955</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>3223</v>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -260,20 +328,19 @@
       <c r="D3" s="0" t="n">
         <v>-600</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>7023</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>3896</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>7029</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>3905</v>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,20 +356,19 @@
       <c r="D4" s="0" t="n">
         <v>-600</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>7054</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>4011</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>7055</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>4004</v>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,20 +384,19 @@
       <c r="D5" s="0" t="n">
         <v>-1000</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>6991</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>3636</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>6982</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>3627</v>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,20 +412,19 @@
       <c r="D6" s="0" t="n">
         <v>-400</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>6893</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>3780</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>6904</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>3780</v>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,20 +440,19 @@
       <c r="D7" s="0" t="n">
         <v>-200</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>6863</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>3396</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>6964</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>3391</v>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,20 +468,19 @@
       <c r="D8" s="0" t="n">
         <v>-200</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>7052</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>3815</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>7041</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>3809</v>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,25 +496,24 @@
       <c r="D9" s="0" t="n">
         <v>-400</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>7135</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>4061</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>7135</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>4071</v>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
